--- a/PUMA测试数据.xlsx
+++ b/PUMA测试数据.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25.082</t>
+          <t>34.28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>92.4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>145.1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,600</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>101.419</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,10</t>
         </is>
       </c>
     </row>
@@ -514,12 +514,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>365.84</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -530,11 +530,7 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0,600</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -543,11 +539,7 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0,700</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
